--- a/datasets/output/exchange_rates.xlsx
+++ b/datasets/output/exchange_rates.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Exhange Rate</t>
+    <t>MXN Exhange Rate</t>
+  </si>
+  <si>
+    <t>CRC Exhange Rate</t>
+  </si>
+  <si>
+    <t>COP Exhange Rate</t>
+  </si>
+  <si>
+    <t>GTQ Exhange Rate</t>
   </si>
   <si>
     <t>2012-01-31</t>
@@ -689,1162 +698,2107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>12.980045</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>506.324967</v>
+      </c>
+      <c r="E2">
+        <v>1807.12456</v>
+      </c>
+      <c r="F2">
+        <v>7.785415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>12.840447</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>509.358967</v>
+      </c>
+      <c r="E3">
+        <v>1783.259039</v>
+      </c>
+      <c r="F3">
+        <v>7.746895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>12.710813</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>506.01949</v>
+      </c>
+      <c r="E4">
+        <v>1763.764386</v>
+      </c>
+      <c r="F4">
+        <v>7.731204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>12.993272</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>503.864003</v>
+      </c>
+      <c r="E5">
+        <v>1760.796136</v>
+      </c>
+      <c r="F5">
+        <v>7.777389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>14.241763</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>501.678065</v>
+      </c>
+      <c r="E6">
+        <v>1827.441649</v>
+      </c>
+      <c r="F6">
+        <v>7.804439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>13.383196</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>499.578696</v>
+      </c>
+      <c r="E7">
+        <v>1795.284071</v>
+      </c>
+      <c r="F7">
+        <v>7.847576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>13.280706</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>499.74875</v>
+      </c>
+      <c r="E8">
+        <v>1791.208669</v>
+      </c>
+      <c r="F8">
+        <v>7.824933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>13.256172</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>499.482625</v>
+      </c>
+      <c r="E9">
+        <v>1827.075458</v>
+      </c>
+      <c r="F9">
+        <v>7.936083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>12.862517</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>501.141665</v>
+      </c>
+      <c r="E10">
+        <v>1798.833333</v>
+      </c>
+      <c r="F10">
+        <v>8.009183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>13.075352</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>500.175699</v>
+      </c>
+      <c r="E11">
+        <v>1830.996366</v>
+      </c>
+      <c r="F11">
+        <v>7.86033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>12.92793</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>499.791825</v>
+      </c>
+      <c r="E12">
+        <v>1817.458406</v>
+      </c>
+      <c r="F12">
+        <v>7.90929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>12.969897</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>510.858046</v>
+      </c>
+      <c r="E13">
+        <v>1766.7849</v>
+      </c>
+      <c r="F13">
+        <v>7.899388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>12.704335</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>501.062425</v>
+      </c>
+      <c r="E14">
+        <v>1775.867786</v>
+      </c>
+      <c r="F14">
+        <v>7.837014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>12.791873</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>499.782826</v>
+      </c>
+      <c r="E15">
+        <v>1816.872406</v>
+      </c>
+      <c r="F15">
+        <v>7.831825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>12.325529</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>499.574098</v>
+      </c>
+      <c r="E16">
+        <v>1826.32938</v>
+      </c>
+      <c r="F16">
+        <v>7.76255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>12.140442</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>499.191099</v>
+      </c>
+      <c r="E17">
+        <v>1828.684348</v>
+      </c>
+      <c r="F17">
+        <v>7.776763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>12.781735</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>500.2574</v>
+      </c>
+      <c r="E18">
+        <v>1898.82728</v>
+      </c>
+      <c r="F18">
+        <v>7.796353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>12.967667</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>501.4643</v>
+      </c>
+      <c r="E19">
+        <v>1927.89423</v>
+      </c>
+      <c r="F19">
+        <v>7.860548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>12.756343</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>502.878652</v>
+      </c>
+      <c r="E20">
+        <v>1893.839793</v>
+      </c>
+      <c r="F20">
+        <v>7.82472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>13.364975</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>505.202649</v>
+      </c>
+      <c r="E21">
+        <v>1937.427196</v>
+      </c>
+      <c r="F21">
+        <v>7.970551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>13.08528</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>502.198437</v>
+      </c>
+      <c r="E22">
+        <v>1904.297348</v>
+      </c>
+      <c r="F22">
+        <v>7.92983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>12.99128</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>503.596479</v>
+      </c>
+      <c r="E23">
+        <v>1887.639799</v>
+      </c>
+      <c r="F23">
+        <v>7.954504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>13.10362</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>497.745298</v>
+      </c>
+      <c r="E24">
+        <v>1932.055016</v>
+      </c>
+      <c r="F24">
+        <v>7.890658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>13.04425</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>501.270201</v>
+      </c>
+      <c r="E25">
+        <v>1928.72</v>
+      </c>
+      <c r="F25">
+        <v>7.848769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>13.36065</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>509.843201</v>
+      </c>
+      <c r="E26">
+        <v>2015.476667</v>
+      </c>
+      <c r="F26">
+        <v>7.826226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>13.27074</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>507.582875</v>
+      </c>
+      <c r="E27">
+        <v>2049.306667</v>
+      </c>
+      <c r="F27">
+        <v>7.748164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>13.05953</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>543.739003</v>
+      </c>
+      <c r="E28">
+        <v>1969.533317</v>
+      </c>
+      <c r="F28">
+        <v>7.73019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>13.08806</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>548.2224</v>
+      </c>
+      <c r="E29">
+        <v>1936.044992</v>
+      </c>
+      <c r="F29">
+        <v>7.732037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30">
         <v>12.85641</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>552.4069040000001</v>
+      </c>
+      <c r="E30">
+        <v>1898.106683</v>
+      </c>
+      <c r="F30">
+        <v>7.778281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>12.97124</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>544.414998</v>
+      </c>
+      <c r="E31">
+        <v>1879.213333</v>
+      </c>
+      <c r="F31">
+        <v>7.77538</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>13.19951</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>538.396306</v>
+      </c>
+      <c r="E32">
+        <v>1876.443325</v>
+      </c>
+      <c r="F32">
+        <v>7.810024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>13.0746</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>541.572005</v>
+      </c>
+      <c r="E33">
+        <v>1909.726659</v>
+      </c>
+      <c r="F33">
+        <v>7.78704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>13.43804</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>539.5819</v>
+      </c>
+      <c r="E34">
+        <v>2025.388341</v>
+      </c>
+      <c r="F34">
+        <v>7.680964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>13.47965</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>541.005096</v>
+      </c>
+      <c r="E35">
+        <v>2062.506667</v>
+      </c>
+      <c r="F35">
+        <v>7.624051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36">
         <v>13.92297</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>537.701995</v>
+      </c>
+      <c r="E36">
+        <v>2198.4</v>
+      </c>
+      <c r="F36">
+        <v>7.6431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>14.74588</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>540.340997</v>
+      </c>
+      <c r="E37">
+        <v>2380.11</v>
+      </c>
+      <c r="F37">
+        <v>7.602873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38">
         <v>14.95551</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>536.507404</v>
+      </c>
+      <c r="E38">
+        <v>2444.77</v>
+      </c>
+      <c r="F38">
+        <v>7.651931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <v>14.95402</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>536.839498</v>
+      </c>
+      <c r="E39">
+        <v>2501.615007</v>
+      </c>
+      <c r="F39">
+        <v>7.638842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>15.25479</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>533.352494</v>
+      </c>
+      <c r="E40">
+        <v>2587.971657</v>
+      </c>
+      <c r="F40">
+        <v>7.643595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>15.32951</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>531.832802</v>
+      </c>
+      <c r="E41">
+        <v>2391.264967</v>
+      </c>
+      <c r="F41">
+        <v>7.76306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>15.38403</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>533.176005</v>
+      </c>
+      <c r="E42">
+        <v>2532.313307</v>
+      </c>
+      <c r="F42">
+        <v>7.67096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>15.70433</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>537.095602</v>
+      </c>
+      <c r="E43">
+        <v>2602.340016</v>
+      </c>
+      <c r="F43">
+        <v>7.640316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>16.15436</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>535.528045</v>
+      </c>
+      <c r="E44">
+        <v>2871.8</v>
+      </c>
+      <c r="F44">
+        <v>7.667918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>16.74231</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>534.268</v>
+      </c>
+      <c r="E45">
+        <v>3090.109993</v>
+      </c>
+      <c r="F45">
+        <v>7.68335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C46">
         <v>16.94813</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>533.908902</v>
+      </c>
+      <c r="E46">
+        <v>3086.688307</v>
+      </c>
+      <c r="F46">
+        <v>7.681147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>16.51272</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>535.427598</v>
+      </c>
+      <c r="E47">
+        <v>2916.28165</v>
+      </c>
+      <c r="F47">
+        <v>7.68327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>16.58406</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>531.3629979999999</v>
+      </c>
+      <c r="E48">
+        <v>3127.631637</v>
+      </c>
+      <c r="F48">
+        <v>7.61383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>17.25866</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>538.363298</v>
+      </c>
+      <c r="E49">
+        <v>3177.831676</v>
+      </c>
+      <c r="F49">
+        <v>7.638906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C50">
         <v>18.12185</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>539.109996</v>
+      </c>
+      <c r="E50">
+        <v>3291.399971</v>
+      </c>
+      <c r="F50">
+        <v>7.70152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>18.27801</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>537.169994</v>
+      </c>
+      <c r="E51">
+        <v>3341.793294</v>
+      </c>
+      <c r="F51">
+        <v>7.70342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>17.27305</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>534.489523</v>
+      </c>
+      <c r="E52">
+        <v>3012.814974</v>
+      </c>
+      <c r="F52">
+        <v>7.718713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>17.18277</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>536.52</v>
+      </c>
+      <c r="E53">
+        <v>2865.675</v>
+      </c>
+      <c r="F53">
+        <v>7.735283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>18.47238</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>537.8326</v>
+      </c>
+      <c r="E54">
+        <v>3082.456641</v>
+      </c>
+      <c r="F54">
+        <v>7.632954</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>18.38421</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>546.792597</v>
+      </c>
+      <c r="E55">
+        <v>2947.408317</v>
+      </c>
+      <c r="F55">
+        <v>7.64504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>18.75688</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>545.852</v>
+      </c>
+      <c r="E56">
+        <v>3073.95</v>
+      </c>
+      <c r="F56">
+        <v>7.5435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>18.77426</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>550.513896</v>
+      </c>
+      <c r="E57">
+        <v>2945.943366</v>
+      </c>
+      <c r="F57">
+        <v>7.551703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>19.37987</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>550.268628</v>
+      </c>
+      <c r="E58">
+        <v>2880.7675</v>
+      </c>
+      <c r="F58">
+        <v>7.51956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>18.88999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>550.049001</v>
+      </c>
+      <c r="E59">
+        <v>2989.133333</v>
+      </c>
+      <c r="F59">
+        <v>7.50669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>20.57983</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>549.4479</v>
+      </c>
+      <c r="E60">
+        <v>3104.408333</v>
+      </c>
+      <c r="F60">
+        <v>7.512785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>20.73516</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>552.813073</v>
+      </c>
+      <c r="E61">
+        <v>3002</v>
+      </c>
+      <c r="F61">
+        <v>7.517347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>20.82172</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>548.539278</v>
+      </c>
+      <c r="E62">
+        <v>2899.159664</v>
+      </c>
+      <c r="F62">
+        <v>7.444228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>20.127279</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>557.5092079999999</v>
+      </c>
+      <c r="E63">
+        <v>2919.85</v>
+      </c>
+      <c r="F63">
+        <v>7.369952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>18.71887</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>557.659208</v>
+      </c>
+      <c r="E64">
+        <v>2873.92</v>
+      </c>
+      <c r="F64">
+        <v>7.355482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>18.820562</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>560.625183</v>
+      </c>
+      <c r="E65">
+        <v>2941.68</v>
+      </c>
+      <c r="F65">
+        <v>7.372095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>18.638698</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>571.105</v>
+      </c>
+      <c r="E66">
+        <v>2917.75</v>
+      </c>
+      <c r="F66">
+        <v>7.331472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>18.126175</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>566.855059</v>
+      </c>
+      <c r="E67">
+        <v>3044.03</v>
+      </c>
+      <c r="F67">
+        <v>7.322482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>17.80455</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>569.726142</v>
+      </c>
+      <c r="E68">
+        <v>2985.333333</v>
+      </c>
+      <c r="F68">
+        <v>7.224946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>17.89281</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>573.298269</v>
+      </c>
+      <c r="E69">
+        <v>2950.12</v>
+      </c>
+      <c r="F69">
+        <v>7.254894</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>18.25675</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>572.24</v>
+      </c>
+      <c r="E70">
+        <v>2936.9</v>
+      </c>
+      <c r="F70">
+        <v>7.333588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>19.174107</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>569.691142</v>
+      </c>
+      <c r="E71">
+        <v>3041.8</v>
+      </c>
+      <c r="F71">
+        <v>7.346466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>18.652065</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>566.3375590000001</v>
+      </c>
+      <c r="E72">
+        <v>2992.75</v>
+      </c>
+      <c r="F72">
+        <v>7.315248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>19.677305</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>565.372717</v>
+      </c>
+      <c r="E73">
+        <v>2985.73975</v>
+      </c>
+      <c r="F73">
+        <v>7.3394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>18.602475</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>567.58</v>
+      </c>
+      <c r="E74">
+        <v>2835.6</v>
+      </c>
+      <c r="F74">
+        <v>7.348889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>18.8419</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>570.033642</v>
+      </c>
+      <c r="E75">
+        <v>2899.159664</v>
+      </c>
+      <c r="F75">
+        <v>7.367928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>18.1598</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>567.215</v>
+      </c>
+      <c r="E76">
+        <v>2793</v>
+      </c>
+      <c r="F76">
+        <v>7.416791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>18.7135</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>566.3325589999999</v>
+      </c>
+      <c r="E77">
+        <v>2817.460317</v>
+      </c>
+      <c r="F77">
+        <v>7.422356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>19.9122</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>566.517559</v>
+      </c>
+      <c r="E78">
+        <v>2899.159664</v>
+      </c>
+      <c r="F78">
+        <v>7.484536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>19.9126</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>566.9675590000001</v>
+      </c>
+      <c r="E79">
+        <v>2931.05</v>
+      </c>
+      <c r="F79">
+        <v>7.492844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>18.668723</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>566.8884859999999</v>
+      </c>
+      <c r="E80">
+        <v>2885.388453</v>
+      </c>
+      <c r="F80">
+        <v>7.5007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C81">
         <v>19.084528</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>572.154399</v>
+      </c>
+      <c r="E81">
+        <v>3044.005883</v>
+      </c>
+      <c r="F81">
+        <v>7.563506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C82">
         <v>18.67516</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>579.24793</v>
+      </c>
+      <c r="E82">
+        <v>2979.606539</v>
+      </c>
+      <c r="F82">
+        <v>7.697008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C83">
         <v>20.32009</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>606.833794</v>
+      </c>
+      <c r="E83">
+        <v>3215.266082</v>
+      </c>
+      <c r="F83">
+        <v>7.758337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>20.397351</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>598.488849</v>
+      </c>
+      <c r="E84">
+        <v>3254.167166</v>
+      </c>
+      <c r="F84">
+        <v>7.70015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>19.648693</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>604.750409</v>
+      </c>
+      <c r="E85">
+        <v>3236.464487</v>
+      </c>
+      <c r="F85">
+        <v>7.730914</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C86">
         <v>19.104195</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>611.218282</v>
+      </c>
+      <c r="E86">
+        <v>3173.895556</v>
+      </c>
+      <c r="F86">
+        <v>7.739734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>19.27782</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>607.449134</v>
+      </c>
+      <c r="E87">
+        <v>3082.006541</v>
+      </c>
+      <c r="F87">
+        <v>7.714488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C88">
         <v>19.3446</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>601.820749</v>
+      </c>
+      <c r="E88">
+        <v>3177.396483</v>
+      </c>
+      <c r="F88">
+        <v>7.689619</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C89">
         <v>18.939</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>596.03358</v>
+      </c>
+      <c r="E89">
+        <v>3251.110041</v>
+      </c>
+      <c r="F89">
+        <v>7.660276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C90">
         <v>19.6158</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>586.955731</v>
+      </c>
+      <c r="E90">
+        <v>3349.332484</v>
+      </c>
+      <c r="F90">
+        <v>7.712498</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C91">
         <v>19.151597</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>582.9090189999999</v>
+      </c>
+      <c r="E91">
+        <v>3203.832452</v>
+      </c>
+      <c r="F91">
+        <v>7.711744</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C92">
         <v>19.1528</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>572.1135839999999</v>
+      </c>
+      <c r="E92">
+        <v>3323.977374</v>
+      </c>
+      <c r="F92">
+        <v>7.695873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C93">
         <v>20.067438</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>568.4491870000001</v>
+      </c>
+      <c r="E93">
+        <v>3448.517418</v>
+      </c>
+      <c r="F93">
+        <v>7.682085</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C94">
         <v>19.73715</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>583.889231</v>
+      </c>
+      <c r="E94">
+        <v>3466.750619</v>
+      </c>
+      <c r="F94">
+        <v>7.745641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>19.2391</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>581.605461</v>
+      </c>
+      <c r="E95">
+        <v>3388.929129</v>
+      </c>
+      <c r="F95">
+        <v>7.711103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C96">
         <v>19.54506</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>561.400324</v>
+      </c>
+      <c r="E96">
+        <v>3505.6702</v>
+      </c>
+      <c r="F96">
+        <v>7.698224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C97">
         <v>18.9324</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>571.73911</v>
+      </c>
+      <c r="E97">
+        <v>3285.755965</v>
+      </c>
+      <c r="F97">
+        <v>7.703356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C98">
         <v>18.8436</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>565.194451</v>
+      </c>
+      <c r="E98">
+        <v>3420.07</v>
+      </c>
+      <c r="F98">
+        <v>7.66421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>19.612998</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>569.614993</v>
+      </c>
+      <c r="E99">
+        <v>3491.233747</v>
+      </c>
+      <c r="F99">
+        <v>7.625249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C100">
         <v>23.769</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>582.5460880000001</v>
+      </c>
+      <c r="E100">
+        <v>4034.47521</v>
+      </c>
+      <c r="F100">
+        <v>7.716519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C101">
         <v>24.2308</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>567.972162</v>
+      </c>
+      <c r="E101">
+        <v>3896.741039</v>
+      </c>
+      <c r="F101">
+        <v>7.718042</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C102">
         <v>22.185207</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>569.256516</v>
+      </c>
+      <c r="E102">
+        <v>3704.524858</v>
+      </c>
+      <c r="F102">
+        <v>7.686415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C103">
         <v>23.0194</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>579.835166</v>
+      </c>
+      <c r="E103">
+        <v>3742.764903</v>
+      </c>
+      <c r="F103">
+        <v>7.700776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C104">
         <v>22.283049</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>583.939167</v>
+      </c>
+      <c r="E104">
+        <v>3742.57598</v>
+      </c>
+      <c r="F104">
+        <v>7.711148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C105">
         <v>21.91615</v>
+      </c>
+      <c r="D105">
+        <v>594.66714</v>
+      </c>
+      <c r="E105">
+        <v>3739.975139</v>
+      </c>
+      <c r="F105">
+        <v>7.713664</v>
       </c>
     </row>
   </sheetData>
